--- a/biology/Histoire de la zoologie et de la botanique/Marcel_Lainé/Marcel_Lainé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marcel_Lainé/Marcel_Lainé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcel_Lain%C3%A9</t>
+          <t>Marcel_Lainé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Lainé, né le 20 avril 1921 à Pont-Audemer (Eure) et mort le 31 août 1997 à La Haye-Malherbe (Eure), est un médecin malherbois français. C’est un naturaliste, spécialiste des lépidoptères. Il a constitué une collection de plus de 10 000 spécimens. Il fut également le Président de la Société d'Etude des Sciences naturelles d'Elbeuf. 
 Il a reçu la décoration des Palmes Académiques en mai 1997 pour ses travaux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcel_Lain%C3%A9</t>
+          <t>Marcel_Lainé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Étude écologique et géonémique des macrolépidoptères de Normandie
 Pyrales et ptérophores, 1986</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marcel_Lain%C3%A9</t>
+          <t>Marcel_Lainé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Société(s)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Association entomologique d'Évreux, membre fondateur,
 Société d'études des sciences naturelles du Muséum d'Elbeuf, 1957.</t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcel_Lain%C3%A9</t>
+          <t>Marcel_Lainé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Autre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre médical de la Haye Malherbe porte le nom de Marcel Lainé.
 Les carnets de notes de Marcel Lainé sont aujourd’hui au musée d’Elbeuf.
